--- a/Data/devices.xlsx
+++ b/Data/devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17385"/>
+    <workbookView windowWidth="28800" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>芯片方案</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>CIOT00059682</t>
+  </si>
+  <si>
+    <t>CMDC9E020B8F</t>
+  </si>
+  <si>
+    <t>ceshi@123</t>
   </si>
 </sst>
 </file>
@@ -294,16 +300,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +317,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -325,14 +331,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -340,31 +339,89 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -372,89 +429,38 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -468,31 +474,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,151 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,56 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -745,8 +701,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,158 +749,184 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -928,59 +934,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1276,18 +1282,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AV19" sqref="AV19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="10" max="11" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="16" max="21" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.2518518518519" customWidth="1"/>
+    <col min="10" max="11" width="12.7481481481481" customWidth="1"/>
+    <col min="14" max="14" width="14.2518518518519" customWidth="1"/>
+    <col min="16" max="21" width="14.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -1922,6 +1928,164 @@
         <v>87</v>
       </c>
       <c r="BA4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5">
+        <v>9123</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1933,6 +2097,8 @@
     <hyperlink ref="S2" r:id="rId2" display="chzhdpl@246"/>
     <hyperlink ref="S3" r:id="rId2" display="chzhdpl@246"/>
     <hyperlink ref="S4" r:id="rId2" display="chzhdpl@246"/>
+    <hyperlink ref="AE5" r:id="rId1" display="http://172.16.3.251:9090/ACS-server/ACS"/>
+    <hyperlink ref="S5" r:id="rId3" display="ceshi@123" tooltip="mailto:ceshi@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Data/devices.xlsx
+++ b/Data/devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11565"/>
+    <workbookView windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>芯片方案</t>
   </si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>CIOT00059682</t>
-  </si>
-  <si>
-    <t>CMDC9E020B8F</t>
-  </si>
-  <si>
-    <t>ceshi@123</t>
   </si>
 </sst>
 </file>
@@ -300,16 +294,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +311,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,7 +325,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -339,67 +340,106 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -407,63 +447,17 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -474,19 +468,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,145 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +677,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -701,32 +745,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,184 +769,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -934,59 +928,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1282,18 +1276,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AV19" sqref="AV19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="3"/>
   <cols>
-    <col min="6" max="6" width="18.2518518518519" customWidth="1"/>
-    <col min="10" max="11" width="12.7481481481481" customWidth="1"/>
-    <col min="14" max="14" width="14.2518518518519" customWidth="1"/>
-    <col min="16" max="21" width="14.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="10" max="11" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="16" max="21" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -1928,164 +1922,6 @@
         <v>87</v>
       </c>
       <c r="BA4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG5">
-        <v>9123</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2097,8 +1933,6 @@
     <hyperlink ref="S2" r:id="rId2" display="chzhdpl@246"/>
     <hyperlink ref="S3" r:id="rId2" display="chzhdpl@246"/>
     <hyperlink ref="S4" r:id="rId2" display="chzhdpl@246"/>
-    <hyperlink ref="AE5" r:id="rId1" display="http://172.16.3.251:9090/ACS-server/ACS"/>
-    <hyperlink ref="S5" r:id="rId3" display="ceshi@123" tooltip="mailto:ceshi@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Data/devices.xlsx
+++ b/Data/devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17385"/>
+    <workbookView windowWidth="28800" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>芯片方案</t>
   </si>
@@ -220,70 +220,73 @@
     <t>admin</t>
   </si>
   <si>
+    <t>ceshi@123</t>
+  </si>
+  <si>
+    <t>20230710_043225</t>
+  </si>
+  <si>
+    <t>CMCC-0000</t>
+  </si>
+  <si>
+    <t>CMCC-0000-5G</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>scmu6@tc</t>
+  </si>
+  <si>
+    <t>http://172.16.3.251:9090/ACS-server/ACS</t>
+  </si>
+  <si>
+    <t>172.16.3.251</t>
+  </si>
+  <si>
+    <t>已校准</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>cmcc</t>
+  </si>
+  <si>
+    <t>iot</t>
+  </si>
+  <si>
+    <t>EN8850DHE</t>
+  </si>
+  <si>
+    <t>hgu</t>
+  </si>
+  <si>
+    <t>CMCC_MARKET_2023</t>
+  </si>
+  <si>
+    <t>86b68bf33c422140fefff32553a0400200f977fd</t>
+  </si>
+  <si>
+    <t>1bb4d2a402d64014df3b45ec18d01179dd6c331c</t>
+  </si>
+  <si>
+    <t>83e45f7f09b74a867c9eed31ec7db18cb1a10e6e</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>54fed165fbd6decb0fd6a577e17808c9091f75a3</t>
+  </si>
+  <si>
+    <t>CIOT00059681</t>
+  </si>
+  <si>
     <t>chzhdpl@246</t>
-  </si>
-  <si>
-    <t>20230710_043225</t>
-  </si>
-  <si>
-    <t>CMCC-0000</t>
-  </si>
-  <si>
-    <t>CMCC-0000-5G</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>scmu6@tc</t>
-  </si>
-  <si>
-    <t>http://172.16.3.251:9090/ACS-server/ACS</t>
-  </si>
-  <si>
-    <t>172.16.3.251</t>
-  </si>
-  <si>
-    <t>已校准</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>cmcc</t>
-  </si>
-  <si>
-    <t>iot</t>
-  </si>
-  <si>
-    <t>EN8850DHE</t>
-  </si>
-  <si>
-    <t>hgu</t>
-  </si>
-  <si>
-    <t>CMCC_MARKET_2023</t>
-  </si>
-  <si>
-    <t>86b68bf33c422140fefff32553a0400200f977fd</t>
-  </si>
-  <si>
-    <t>1bb4d2a402d64014df3b45ec18d01179dd6c331c</t>
-  </si>
-  <si>
-    <t>83e45f7f09b74a867c9eed31ec7db18cb1a10e6e</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>54fed165fbd6decb0fd6a577e17808c9091f75a3</t>
-  </si>
-  <si>
-    <t>CIOT00059681</t>
   </si>
   <si>
     <t>CIOT00059682</t>
@@ -294,16 +297,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,9 +314,16 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -324,140 +334,140 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -468,187 +478,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,33 +691,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +707,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +746,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -770,157 +780,157 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -928,59 +938,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1278,16 +1288,16 @@
   <sheetPr/>
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="10" max="11" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="16" max="21" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.2518518518519" customWidth="1"/>
+    <col min="10" max="11" width="12.7481481481481" customWidth="1"/>
+    <col min="14" max="14" width="14.2518518518519" customWidth="1"/>
+    <col min="16" max="21" width="14.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -1662,7 +1672,7 @@
         <v>67</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
         <v>55</v>
@@ -1781,7 +1791,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
@@ -1819,8 +1829,8 @@
       <c r="R4" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>68</v>
+      <c r="S4" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="T4" t="s">
         <v>55</v>
@@ -1930,9 +1940,9 @@
     <hyperlink ref="AE2" r:id="rId1" display="http://172.16.3.251:9090/ACS-server/ACS"/>
     <hyperlink ref="AE3" r:id="rId1" display="http://172.16.3.251:9090/ACS-server/ACS"/>
     <hyperlink ref="AE4" r:id="rId1" display="http://172.16.3.251:9090/ACS-server/ACS"/>
-    <hyperlink ref="S2" r:id="rId2" display="chzhdpl@246"/>
+    <hyperlink ref="S4" r:id="rId2" display="chzhdpl@246"/>
     <hyperlink ref="S3" r:id="rId2" display="chzhdpl@246"/>
-    <hyperlink ref="S4" r:id="rId2" display="chzhdpl@246"/>
+    <hyperlink ref="S2" r:id="rId3" display="ceshi@123" tooltip="mailto:ceshi@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
